--- a/EcologyBiasTables.xlsx
+++ b/EcologyBiasTables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicamarquez/Desktop/Dr.D Ecology Bias SC/MA321-Daneshgar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odalysbar/Documents/MA321-FA20/MA321-Daneshgar/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D82A4-7B9F-2A4A-97D0-EB923FC18EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
   <si>
     <t>Ecosystem</t>
   </si>
@@ -293,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -341,60 +347,107 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ecosystem" displayName="Ecosystem" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Ecosystem" displayName="Ecosystem" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Ecosystem"/>
-    <tableColumn id="2" name="Counts"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ecosystem"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Counts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Region" displayName="Region" ref="D1:E10" totalsRowShown="0">
-  <autoFilter ref="D1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Region" displayName="Region" ref="D1:E10" totalsRowShown="0">
+  <autoFilter ref="D1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Region"/>
-    <tableColumn id="2" name="Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Region"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Continents" displayName="Continents" ref="G1:H8" totalsRowShown="0">
-  <autoFilter ref="G1:H8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Continents" displayName="Continents" ref="G1:H8" totalsRowShown="0">
+  <autoFilter ref="G1:H8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Continent"/>
-    <tableColumn id="2" name="Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Continent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Countries" displayName="Countries" ref="A14:B50" totalsRowShown="0">
-  <autoFilter ref="A14:B50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Countries" displayName="Countries" ref="A14:B50" totalsRowShown="0">
+  <autoFilter ref="A14:B50" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Country"/>
-    <tableColumn id="2" name="Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="States" displayName="States" ref="D15:E41" totalsRowShown="0">
-  <autoFilter ref="D15:E41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="States" displayName="States" ref="D15:E41" totalsRowShown="0">
+  <autoFilter ref="D15:E41" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="State"/>
-    <tableColumn id="2" name="Count"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="State"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55B14A11-A330-B04C-952A-9E9AC5070762}" name="Countries9" displayName="Countries9" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37" xr:uid="{BFC2068E-0B73-6F45-9D5E-F3A0A579C040}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A0467016-DE61-1A45-A691-A8F30524C01B}" name="Country"/>
+    <tableColumn id="2" xr3:uid="{B0AD24A3-BA15-9947-9C42-5ED3DE8835A8}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76B78CA8-E4E4-F14B-9340-D4AD390B549F}" name="Region3" displayName="Region3" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{9CE0DC42-1C59-294B-A89A-A68D41522C01}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F94CA18F-BC33-8240-81C7-88644CC94E1B}" name="Region"/>
+    <tableColumn id="2" xr3:uid="{F00A52D0-070F-194F-A4BC-1B37C6D88EAA}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D234AC4D-0F58-7B47-907D-494F6594F1F7}" name="Continents8" displayName="Continents8" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8" xr:uid="{A5DFB51F-3F68-504F-BB28-E938D2967D38}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6B7E53CF-5465-C346-9057-3576148B8B12}" name="Continent"/>
+    <tableColumn id="2" xr3:uid="{58DF6188-128F-6344-9E3D-47220AB9C42F}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EE74738-A42C-1E4F-A9B5-3EFA8F44640B}" name="States10" displayName="States10" ref="A1:B27" totalsRowShown="0">
+  <autoFilter ref="A1:B27" xr:uid="{B48134A9-DD3B-C445-9F25-6915C4ADAC05}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6D83F8FC-4D75-7448-9C2F-A3A638881514}" name="State"/>
+    <tableColumn id="2" xr3:uid="{78271576-48D1-3C45-9F87-AB55724A042B}" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -662,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1348,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -1304,4 +1357,744 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5E316-0F81-FC48-B2F3-179F81A5984A}">
+  <dimension ref="A1:B37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E25248-53A0-2442-8ADE-A18FACBF7FF3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D706D-3378-0D4C-A42C-B2B31360E023}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA1A4A8-566E-854D-8AEC-8D404D99768A}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54061D-A409-CC4F-A39C-6FE6ADF441F6}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/EcologyBiasTables.xlsx
+++ b/EcologyBiasTables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/odalysbar/Documents/MA321-FA20/MA321-Daneshgar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicamarquez/Desktop/Dr.D Ecology Bias SC/MA321-Daneshgar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7D82A4-7B9F-2A4A-97D0-EB923FC18EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8653DB4-49C9-774D-99CA-83F895E7BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
   <si>
     <t>Ecosystem</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Mid-South</t>
   </si>
 </sst>
 </file>
@@ -421,8 +424,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76B78CA8-E4E4-F14B-9340-D4AD390B549F}" name="Region3" displayName="Region3" ref="A1:B10" totalsRowShown="0">
-  <autoFilter ref="A1:B10" xr:uid="{9CE0DC42-1C59-294B-A89A-A68D41522C01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76B78CA8-E4E4-F14B-9340-D4AD390B549F}" name="Region3" displayName="Region3" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{9CE0DC42-1C59-294B-A89A-A68D41522C01}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{F94CA18F-BC33-8240-81C7-88644CC94E1B}" name="Region"/>
     <tableColumn id="2" xr3:uid="{F00A52D0-070F-194F-A4BC-1B37C6D88EAA}" name="Count"/>
@@ -721,7 +724,7 @@
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:E41"/>
     </sheetView>
   </sheetViews>
@@ -1687,13 +1690,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D706D-3378-0D4C-A42C-B2B31360E023}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1721,57 +1727,65 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>3</v>
       </c>
     </row>
@@ -1869,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54061D-A409-CC4F-A39C-6FE6ADF441F6}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A193" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/EcologyBiasTables.xlsx
+++ b/EcologyBiasTables.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veronicamarquez/Desktop/Dr.D Ecology Bias SC/MA321-Daneshgar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8653DB4-49C9-774D-99CA-83F895E7BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="89">
   <si>
     <t>Ecosystem</t>
   </si>
@@ -297,12 +296,15 @@
   </si>
   <si>
     <t>Mid-South</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -358,99 +360,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Ecosystem" displayName="Ecosystem" ref="A1:B4" totalsRowShown="0">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Ecosystem" displayName="Ecosystem" ref="A1:B4" totalsRowShown="0">
+  <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Ecosystem"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Counts"/>
+    <tableColumn id="1" name="Ecosystem"/>
+    <tableColumn id="2" name="Counts"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Region" displayName="Region" ref="D1:E10" totalsRowShown="0">
-  <autoFilter ref="D1:E10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Region" displayName="Region" ref="D1:E10" totalsRowShown="0">
+  <autoFilter ref="D1:E10"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Region"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Count"/>
+    <tableColumn id="1" name="Region"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Continents" displayName="Continents" ref="G1:H8" totalsRowShown="0">
-  <autoFilter ref="G1:H8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Continents" displayName="Continents" ref="G1:H8" totalsRowShown="0">
+  <autoFilter ref="G1:H8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Continent"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Count"/>
+    <tableColumn id="1" name="Continent"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Countries" displayName="Countries" ref="A14:B50" totalsRowShown="0">
-  <autoFilter ref="A14:B50" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Countries" displayName="Countries" ref="A14:B50" totalsRowShown="0">
+  <autoFilter ref="A14:B50"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Country"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Count"/>
+    <tableColumn id="1" name="Country"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="States" displayName="States" ref="D15:E41" totalsRowShown="0">
-  <autoFilter ref="D15:E41" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="States" displayName="States" ref="D15:E41" totalsRowShown="0">
+  <autoFilter ref="D15:E41"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="State"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Count"/>
+    <tableColumn id="1" name="State"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{55B14A11-A330-B04C-952A-9E9AC5070762}" name="Countries9" displayName="Countries9" ref="A1:B37" totalsRowShown="0">
-  <autoFilter ref="A1:B37" xr:uid="{BFC2068E-0B73-6F45-9D5E-F3A0A579C040}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Countries9" displayName="Countries9" ref="A1:B37" totalsRowShown="0">
+  <autoFilter ref="A1:B37"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A0467016-DE61-1A45-A691-A8F30524C01B}" name="Country"/>
-    <tableColumn id="2" xr3:uid="{B0AD24A3-BA15-9947-9C42-5ED3DE8835A8}" name="Count"/>
+    <tableColumn id="1" name="Country"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{76B78CA8-E4E4-F14B-9340-D4AD390B549F}" name="Region3" displayName="Region3" ref="A1:B11" totalsRowShown="0">
-  <autoFilter ref="A1:B11" xr:uid="{9CE0DC42-1C59-294B-A89A-A68D41522C01}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Region3" displayName="Region3" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{F94CA18F-BC33-8240-81C7-88644CC94E1B}" name="Region"/>
-    <tableColumn id="2" xr3:uid="{F00A52D0-070F-194F-A4BC-1B37C6D88EAA}" name="Count"/>
+    <tableColumn id="1" name="Region"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{D234AC4D-0F58-7B47-907D-494F6594F1F7}" name="Continents8" displayName="Continents8" ref="A1:B8" totalsRowShown="0">
-  <autoFilter ref="A1:B8" xr:uid="{A5DFB51F-3F68-504F-BB28-E938D2967D38}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Continents8" displayName="Continents8" ref="A1:B8" totalsRowShown="0">
+  <autoFilter ref="A1:B8"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6B7E53CF-5465-C346-9057-3576148B8B12}" name="Continent"/>
-    <tableColumn id="2" xr3:uid="{58DF6188-128F-6344-9E3D-47220AB9C42F}" name="Count"/>
+    <tableColumn id="1" name="Continent"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9EE74738-A42C-1E4F-A9B5-3EFA8F44640B}" name="States10" displayName="States10" ref="A1:B27" totalsRowShown="0">
-  <autoFilter ref="A1:B27" xr:uid="{B48134A9-DD3B-C445-9F25-6915C4ADAC05}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="States10" displayName="States10" ref="A1:B27" totalsRowShown="0">
+  <autoFilter ref="A1:B27"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6D83F8FC-4D75-7448-9C2F-A3A638881514}" name="State"/>
-    <tableColumn id="2" xr3:uid="{78271576-48D1-3C45-9F87-AB55724A042B}" name="Count"/>
+    <tableColumn id="1" name="State"/>
+    <tableColumn id="2" name="Count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,13 +720,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D15" sqref="D15:E41"/>
     </sheetView>
   </sheetViews>
@@ -1363,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D5E316-0F81-FC48-B2F3-179F81A5984A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1677,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E25248-53A0-2442-8ADE-A18FACBF7FF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1689,11 +1691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8D706D-3378-0D4C-A42C-B2B31360E023}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="267" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A9" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1769,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1798,7 +1800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA1A4A8-566E-854D-8AEC-8D404D99768A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1880,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B54061D-A409-CC4F-A39C-6FE6ADF441F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView topLeftCell="A193" workbookViewId="0">
